--- a/src/main/webapp/resources/example.xlsx
+++ b/src/main/webapp/resources/example.xlsx
@@ -11,15 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
-  <si>
-    <t>Италия</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>SK 40</t>
   </si>
@@ -42,170 +39,204 @@
     <t>DMC 1035 V_2.jpg</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Product id</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Producing country</t>
-  </si>
-  <si>
-    <t>System CNC</t>
-  </si>
-  <si>
-    <t>System CNC (full ame)</t>
-  </si>
-  <si>
-    <t>Year of prducing</t>
-  </si>
-  <si>
-    <t>Machine location</t>
-  </si>
-  <si>
-    <t>X motion, mm</t>
-  </si>
-  <si>
-    <t>Y motion, mm</t>
-  </si>
-  <si>
-    <t>Z motion, mm</t>
-  </si>
-  <si>
-    <t>X table size, mm</t>
-  </si>
-  <si>
-    <t>Y table size, mm</t>
-  </si>
-  <si>
-    <t>Table load, kg</t>
-  </si>
-  <si>
-    <t>Spindle taper</t>
-  </si>
-  <si>
-    <t>Spindle rotation frequency, rev/min</t>
-  </si>
-  <si>
-    <t>Spindle power, kw</t>
-  </si>
-  <si>
-    <t>Spindle max torque</t>
-  </si>
-  <si>
-    <t>Spindle type</t>
-  </si>
-  <si>
-    <t>Spindle cooling method</t>
-  </si>
-  <si>
-    <t>Store type</t>
-  </si>
-  <si>
-    <t>Tool count, pcs.</t>
-  </si>
-  <si>
-    <t>Max tool diameter, mm</t>
-  </si>
-  <si>
-    <t>Max tool weight, kg</t>
-  </si>
-  <si>
-    <t>Tool replacement time, sec</t>
-  </si>
-  <si>
-    <t>Position precision, mm</t>
-  </si>
-  <si>
-    <t>Reposition precision, mm</t>
-  </si>
-  <si>
-    <t>Spindle runtime, h</t>
-  </si>
-  <si>
-    <t>Machine launching, h</t>
-  </si>
-  <si>
-    <t>Equipment</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Machine photo 1 (name of file, without path)</t>
-  </si>
-  <si>
-    <t>Machine photo 2 (name of file, without path)</t>
-  </si>
-  <si>
-    <t>Machine photo 3 (name of file, without path)</t>
-  </si>
-  <si>
-    <t>Short description</t>
-  </si>
-  <si>
-    <t>Full description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMC </t>
-  </si>
-  <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>Spindle with internal supply SOJ</t>
-  </si>
-  <si>
-    <t>Fluid cooling</t>
-  </si>
-  <si>
-    <t>Turret</t>
-  </si>
-  <si>
-    <t>Pistol, handwheel, bath.</t>
-  </si>
-  <si>
     <t>Good</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>A lot of description</t>
-  </si>
-  <si>
-    <t>Axis count</t>
-  </si>
-  <si>
     <t>P___50724152</t>
   </si>
   <si>
     <t>DECKEL-MAHO</t>
   </si>
   <si>
-    <t>0,05a</t>
-  </si>
-  <si>
-    <t>0,005a</t>
-  </si>
-  <si>
-    <t>DMC 1035 V_3.png</t>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Horizontal machine centre</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>Время смены инструмента, сек tool to tool  (исх.хар-ки) (String)</t>
+  </si>
+  <si>
+    <t>Время смены инструмента, сек chip to chip  (исх.хар-ки) (String)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/n5X74Shzais</t>
+  </si>
+  <si>
+    <t>0,05a/002</t>
+  </si>
+  <si>
+    <t>Position / Reposition precision, mm (String)</t>
+  </si>
+  <si>
+    <t>Горизонтальный обрабатывающий станок</t>
+  </si>
+  <si>
+    <t>DMC 1035 V_3.jpg</t>
+  </si>
+  <si>
+    <t>DMC 1035 V_4.jpg</t>
+  </si>
+  <si>
+    <t>DMC 1035 V_5.jpg</t>
+  </si>
+  <si>
+    <t>TypeRU</t>
+  </si>
+  <si>
+    <t>Max. tool length (исх.хар-ки) (String)</t>
+  </si>
+  <si>
+    <t>Max tool weight, kg(String)</t>
+  </si>
+  <si>
+    <t>Max tool diameter, mm(String)</t>
+  </si>
+  <si>
+    <t>Tool count, pcs.(String)</t>
+  </si>
+  <si>
+    <t>Spindle power, kw(String)</t>
+  </si>
+  <si>
+    <t>Spindle rotation frequency, rev/min(String)</t>
+  </si>
+  <si>
+    <t>X motion, mm (int)</t>
+  </si>
+  <si>
+    <t>Y motion, mm (int)</t>
+  </si>
+  <si>
+    <t>Z motion, mm (int)</t>
+  </si>
+  <si>
+    <t>X table size, mm (int)</t>
+  </si>
+  <si>
+    <t>Y table size, mm (int)</t>
+  </si>
+  <si>
+    <t>Table load, kg (int)</t>
+  </si>
+  <si>
+    <t>Axis count (String)</t>
+  </si>
+  <si>
+    <t>Machine location (String)</t>
+  </si>
+  <si>
+    <t>Condition (String)</t>
+  </si>
+  <si>
+    <t>Year of prducing (String)</t>
+  </si>
+  <si>
+    <t>System CNC (full ame) (String)</t>
+  </si>
+  <si>
+    <t>System CNC (String)</t>
+  </si>
+  <si>
+    <t>Producing country (String)</t>
+  </si>
+  <si>
+    <t>Brand (String)</t>
+  </si>
+  <si>
+    <t>Model (String)</t>
+  </si>
+  <si>
+    <t>Type (String)</t>
+  </si>
+  <si>
+    <t>Product id (String)</t>
+  </si>
+  <si>
+    <t>Spindle taper (String)</t>
+  </si>
+  <si>
+    <t>Spindle runtime, h (String)</t>
+  </si>
+  <si>
+    <t>Machine launching, h (String)</t>
+  </si>
+  <si>
+    <t>Price (int)</t>
+  </si>
+  <si>
+    <t>Machine photo 1 (name of file, without path) (String)</t>
+  </si>
+  <si>
+    <t>Machine photo 2 (name of file, without path) (String)</t>
+  </si>
+  <si>
+    <t>Machine photo 3 (name of file, without path) (String)</t>
+  </si>
+  <si>
+    <t>Machine photo 4 (name of file, without path) (String)</t>
+  </si>
+  <si>
+    <t>Machine photo 5 (name of file, without path) (String)</t>
+  </si>
+  <si>
+    <t>descriptionRU (String)</t>
+  </si>
+  <si>
+    <t>video 1 (String)</t>
+  </si>
+  <si>
+    <t>video 2 (String)</t>
+  </si>
+  <si>
+    <t>video 3 (String)</t>
+  </si>
+  <si>
+    <t>descriptionEn (String)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Equipment  Main drive
+  Half cabin
+  Manual control panel
+  Direct measuring system X,Y,Z
+  Tool measuring device Heidenhain TT140
+  Production-Package
+  Sandvik-Toolkit for SK 40  DMG Netservice - client &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Is sold? (String) [yes/no]</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Главный привод
+  Полузакрытая кабина
+  Ручной пульт управления
+  Cистема прямого измерения перемещений X/Y/Z
+  Измерительный щуп Heidenhain TT140
+  Производственный пакет 1
+  Набор оснастки Sandvik для SK40
+  DMG Netservice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0_р_."/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,8 +265,33 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +352,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -320,18 +394,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -342,10 +427,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -361,9 +442,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -375,12 +453,46 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -680,334 +792,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
-    <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="C1" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="1">
         <v>2006</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="3">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="2">
+        <v>396000</v>
+      </c>
+      <c r="C30" s="30"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="5">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="15">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="25" t="s">
+      <c r="B38" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="4">
-        <v>8100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="4">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="2">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>54</v>
-      </c>
+      <c r="B39" s="25"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="32"/>
+    </row>
+    <row r="53" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="32"/>
+    </row>
+    <row r="54" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="32"/>
+    </row>
+    <row r="55" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="32"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B37" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
